--- a/general/Genetic algorithm/mutation_comparison.xlsx
+++ b/general/Genetic algorithm/mutation_comparison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>HV</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>IGD</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -209,7 +212,46 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -221,12 +263,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -236,12 +304,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -251,57 +317,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -310,50 +333,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +677,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,32 +686,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="10"/>
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="1"/>
@@ -680,326 +730,423 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>0.21274999999999999</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="18">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="3">
         <v>0.57399999999999995</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="2">
         <v>5.8E-4</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.91777579281587096</v>
+      </c>
+      <c r="G4" s="13">
+        <v>7.11E-3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>0.21384999999999901</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="18">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="3">
         <v>0.57050000000000001</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="2">
         <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.90759701446846397</v>
+      </c>
+      <c r="G5" s="13">
+        <v>9.5700000000000004E-3</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>0.21965000000000001</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="18">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="3">
         <v>0.55799999999999905</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="2">
         <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.91482274944556696</v>
+      </c>
+      <c r="G6" s="13">
+        <v>6.8500000000000002E-3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>0.21665000000000001</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="18">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="3">
         <v>0.5655</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="2">
         <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.91262296724643099</v>
+      </c>
+      <c r="G7" s="13">
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>0.22409999999999999</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="18">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="3">
         <v>0.55049999999999999</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="2">
         <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.91526794130700495</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3.2699999999999999E-3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>0.22675000000000001</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="18">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="3">
         <v>0.54549999999999998</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="2">
         <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.91065644986831196</v>
+      </c>
+      <c r="G9" s="13">
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>0.21015</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="18">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="3">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="2">
         <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.91482274944556696</v>
+      </c>
+      <c r="G10" s="13">
+        <v>9.3900000000000008E-3</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <v>0.22065000000000001</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="18">
         <v>2.7E-4</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="3">
         <v>0.5575</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="2">
         <v>6.2E-4</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.91730095392435596</v>
+      </c>
+      <c r="G11" s="13">
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>0.22405</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="18">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="2">
         <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.91374444865627902</v>
+      </c>
+      <c r="G12" s="13">
+        <v>6.0499999999999998E-3</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <v>0.22735</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="18">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="3">
         <v>0.54449999999999998</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="2">
         <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.91144725171283003</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1.9E-3</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>0.22864999999999999</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="18">
         <v>1E-4</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="3">
         <v>0.54200000000000004</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="2">
         <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.91607260022761305</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <v>0.22450000000000001</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="18">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="3">
         <v>0.54900000000000004</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="2">
         <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0.914077006873524</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <v>0.23874999999999999</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="18">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="3">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="2">
         <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.90583657537426998</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>0.2389</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="18">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="3">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="2">
         <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0.90583657537426998</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <v>0.23899999999999999</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="18">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="3">
         <v>0.52149999999999996</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="2">
         <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.90577737930091695</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="5">
         <v>0.24104999999999999</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="5">
         <v>0.51749999999999996</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="4">
         <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0.90568554724324402</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/general/Genetic algorithm/mutation_comparison.xlsx
+++ b/general/Genetic algorithm/mutation_comparison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="25">
   <si>
     <t>HV</t>
   </si>
@@ -84,19 +84,25 @@
     <t>Wilcoxon</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>IGD</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,15 +112,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -329,34 +365,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -365,40 +503,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -674,480 +969,1058 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="J2" s="1" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="54" t="s">
         <v>20</v>
       </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="H3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="13">
         <v>0.21274999999999999</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="14">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="13">
         <v>0.57399999999999995</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="15">
         <v>5.8E-4</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="38">
         <v>0.91777579281587096</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="16">
         <v>7.11E-3</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="13">
         <v>0.21384999999999901</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="14">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="13">
         <v>0.57050000000000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="15">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="38">
         <v>0.90759701446846397</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="16">
         <v>9.5700000000000004E-3</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.21965000000000001</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.55799999999999905</v>
+      </c>
+      <c r="E6" s="15">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.91482274944556696</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6.8500000000000002E-3</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.21665000000000001</v>
+      </c>
+      <c r="C7" s="14">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.5655</v>
+      </c>
+      <c r="E7" s="15">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0.91262296724643099</v>
+      </c>
+      <c r="G7" s="16">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="E8" s="21">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0.91526794130700495</v>
+      </c>
+      <c r="G8" s="22">
+        <v>3.2699999999999999E-3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.22675000000000001</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="E9" s="21">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0.91065644986831196</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.21015</v>
+      </c>
+      <c r="C10" s="20">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E10" s="21">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0.91482274944556696</v>
+      </c>
+      <c r="G10" s="22">
+        <v>9.3900000000000008E-3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.22065000000000001</v>
+      </c>
+      <c r="C11" s="20">
+        <v>2.7E-4</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.5575</v>
+      </c>
+      <c r="E11" s="21">
+        <v>6.2E-4</v>
+      </c>
+      <c r="F11" s="39">
+        <v>0.91730095392435596</v>
+      </c>
+      <c r="G11" s="22">
+        <v>4.4099999999999999E-3</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0.22405</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E12" s="26">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="F12" s="40">
+        <v>0.91374444865627902</v>
+      </c>
+      <c r="G12" s="27">
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0.22735</v>
+      </c>
+      <c r="C13" s="25">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="E13" s="26">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="F13" s="40">
+        <v>0.91144725171283003</v>
+      </c>
+      <c r="G13" s="27">
+        <v>1.9E-3</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.22864999999999999</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E14" s="26">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0.91607260022761305</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="C15" s="25">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E15" s="26">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="F15" s="40">
+        <v>0.914077006873524</v>
+      </c>
+      <c r="G15" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.23874999999999999</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E16" s="31">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F16" s="41">
+        <v>0.90583657537426998</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29">
+        <v>0.2389</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E17" s="31">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F17" s="41">
+        <v>0.90583657537426998</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="29">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C18" s="30">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="E18" s="31">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0.90577737930091695</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="34">
+        <v>0.24104999999999999</v>
+      </c>
+      <c r="C19" s="35">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="E19" s="36">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F19" s="42">
+        <v>0.90568554724324402</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="G23" s="51"/>
+      <c r="H23" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.21274999999999999</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E25" s="15">
+        <v>5.8E-4</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0.91777579281587096</v>
+      </c>
+      <c r="G25" s="16">
+        <v>7.11E-3</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.21384999999999901</v>
+      </c>
+      <c r="C26" s="14">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0.57050000000000001</v>
+      </c>
+      <c r="E26" s="15">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0.90759701446846397</v>
+      </c>
+      <c r="G26" s="16">
+        <v>9.5700000000000004E-3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B27" s="13">
         <v>0.21965000000000001</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C27" s="14">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D27" s="13">
         <v>0.55799999999999905</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E27" s="15">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F27" s="38">
         <v>0.91482274944556696</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G27" s="16">
         <v>6.8500000000000002E-3</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="H27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B28" s="13">
         <v>0.21665000000000001</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C28" s="14">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D28" s="13">
         <v>0.5655</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E28" s="15">
         <v>9.3000000000000005E-4</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F28" s="38">
         <v>0.91262296724643099</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G28" s="16">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="H28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B29" s="19">
         <v>0.22409999999999999</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C29" s="20">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D29" s="19">
         <v>0.55049999999999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E29" s="21">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F29" s="39">
         <v>0.91526794130700495</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G29" s="22">
         <v>3.2699999999999999E-3</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="H29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B30" s="19">
         <v>0.22675000000000001</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C30" s="20">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D30" s="19">
         <v>0.54549999999999998</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E30" s="21">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F30" s="39">
         <v>0.91065644986831196</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G30" s="22">
         <v>3.9399999999999999E-3</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="H30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B31" s="19">
         <v>0.21015</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C31" s="20">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D31" s="19">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E31" s="21">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F31" s="39">
         <v>0.91482274944556696</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G31" s="22">
         <v>9.3900000000000008E-3</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="H31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B32" s="19">
         <v>0.22065000000000001</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C32" s="20">
         <v>2.7E-4</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D32" s="19">
         <v>0.5575</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E32" s="21">
         <v>6.2E-4</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F32" s="39">
         <v>0.91730095392435596</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G32" s="22">
         <v>4.4099999999999999E-3</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="H32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B33" s="24">
         <v>0.22405</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C33" s="25">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D33" s="24">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E33" s="26">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F33" s="40">
         <v>0.91374444865627902</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G33" s="27">
         <v>6.0499999999999998E-3</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="H33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B34" s="24">
         <v>0.22735</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C34" s="25">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D34" s="24">
         <v>0.54449999999999998</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E34" s="26">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F34" s="40">
         <v>0.91144725171283003</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G34" s="27">
         <v>1.9E-3</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="H34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B35" s="24">
         <v>0.22864999999999999</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C35" s="25">
         <v>1E-4</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D35" s="24">
         <v>0.54200000000000004</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E35" s="26">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F35" s="40">
         <v>0.91607260022761305</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G35" s="27">
         <v>1.5299999999999999E-3</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="H35" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="61"/>
+      <c r="J35" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B36" s="24">
         <v>0.22450000000000001</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C36" s="25">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D36" s="24">
         <v>0.54900000000000004</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E36" s="26">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F36" s="40">
         <v>0.914077006873524</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G36" s="27">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.23874999999999999</v>
-      </c>
-      <c r="C16" s="18">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0.90583657537426998</v>
-      </c>
-      <c r="G16" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.2389</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0.90583657537426998</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.52149999999999996</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="F18" s="22">
-        <v>0.90577737930091695</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.24104999999999999</v>
-      </c>
-      <c r="C19" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.51749999999999996</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0.90568554724324402</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H36" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="62"/>
+      <c r="D37" s="62"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H35:I35"/>
   </mergeCells>
+  <conditionalFormatting sqref="H4:J18">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>H4="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>H4="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:J36 H25:J25 H27:J34 H26:I26">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>H25="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>H25="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>J35="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>J35="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/general/Genetic algorithm/mutation_comparison.xlsx
+++ b/general/Genetic algorithm/mutation_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tamir\תואר שני\master\Master_git\Master\general\Genetic algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40504A32-EDAB-4AA0-9ED6-A5193A107AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9EA3A1-C591-4B79-813D-CD1A6A37891C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="33">
   <si>
     <t>HV</t>
   </si>
@@ -116,6 +116,21 @@
   <si>
     <t>Generations</t>
   </si>
+  <si>
+    <t>HV@30</t>
+  </si>
+  <si>
+    <t>HV@50</t>
+  </si>
+  <si>
+    <t>HV@75</t>
+  </si>
+  <si>
+    <t>HV@125</t>
+  </si>
+  <si>
+    <t>HV@200</t>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,8 +169,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +220,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -546,11 +574,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,8 +688,6 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,8 +706,6 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,8 +718,6 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,8 +730,6 @@
     <xf numFmtId="11" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,8 +742,6 @@
     <xf numFmtId="11" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,21 +751,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,6 +772,42 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,6 +815,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,17 +829,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -712,57 +841,392 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="52">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1211,101 +1675,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="1030" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="1030" width="8.5703125" style="2" customWidth="1"/>
+    <col min="1031" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53" t="s">
+      <c r="B2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="61" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="55" t="s">
+      <c r="I2" s="59"/>
+      <c r="J2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="59"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="51" t="s">
+      <c r="L3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="34" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1325,31 +1792,31 @@
       <c r="E4" s="8">
         <v>5.8E-4</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="69">
         <v>0.91777579281587096</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>7.11E-3</v>
       </c>
-      <c r="H4" s="65">
-        <v>0</v>
-      </c>
-      <c r="I4" s="66">
-        <v>0</v>
-      </c>
-      <c r="J4" s="75">
+      <c r="H4" s="70">
+        <v>0</v>
+      </c>
+      <c r="I4" s="71">
+        <v>0</v>
+      </c>
+      <c r="J4" s="39">
         <v>44.5</v>
       </c>
-      <c r="K4" s="76">
+      <c r="K4" s="40">
         <v>386.83332999999999</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -1357,7 +1824,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="6">
@@ -1372,31 +1839,31 @@
       <c r="E5" s="8">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="69">
         <v>0.90759701446846397</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>9.5700000000000004E-3</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="70">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I5" s="66">
-        <v>0</v>
-      </c>
-      <c r="J5" s="75">
+      <c r="I5" s="71">
+        <v>0</v>
+      </c>
+      <c r="J5" s="39">
         <v>47</v>
       </c>
-      <c r="K5" s="76">
+      <c r="K5" s="40">
         <v>562.53332999999998</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -1404,7 +1871,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6">
@@ -1419,39 +1886,39 @@
       <c r="E6" s="8">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="69">
         <v>0.91482274944556696</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>6.8500000000000002E-3</v>
       </c>
-      <c r="H6" s="65">
-        <v>0</v>
-      </c>
-      <c r="I6" s="66">
-        <v>0</v>
-      </c>
-      <c r="J6" s="75">
+      <c r="H6" s="70">
+        <v>0</v>
+      </c>
+      <c r="I6" s="71">
+        <v>0</v>
+      </c>
+      <c r="J6" s="39">
         <v>36</v>
       </c>
-      <c r="K6" s="76">
+      <c r="K6" s="40">
         <v>460.47816</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="44" t="s">
+      <c r="M6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6">
@@ -1466,31 +1933,31 @@
       <c r="E7" s="8">
         <v>9.3000000000000005E-4</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="69">
         <v>0.91262296724643099</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="H7" s="65">
-        <v>0</v>
-      </c>
-      <c r="I7" s="66">
-        <v>0</v>
-      </c>
-      <c r="J7" s="75">
+      <c r="H7" s="70">
+        <v>0</v>
+      </c>
+      <c r="I7" s="71">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39">
         <v>43</v>
       </c>
-      <c r="K7" s="76">
+      <c r="K7" s="40">
         <v>1041.3574699999999</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="4" t="s">
@@ -1498,46 +1965,46 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>0.22409999999999999</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>0.55049999999999999</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="72">
         <v>0.91526794130700495</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="13">
         <v>3.2699999999999999E-3</v>
       </c>
-      <c r="H8" s="67">
-        <v>0</v>
-      </c>
-      <c r="I8" s="68">
-        <v>0</v>
-      </c>
-      <c r="J8" s="77">
+      <c r="H8" s="73">
+        <v>0</v>
+      </c>
+      <c r="I8" s="74">
+        <v>0</v>
+      </c>
+      <c r="J8" s="41">
         <v>80.5</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="42">
         <v>1578.1379300000001</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="O8" s="4" t="s">
@@ -1545,46 +2012,46 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>0.22675000000000001</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>0.54549999999999998</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="72">
         <v>0.91065644986831196</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="13">
         <v>3.9399999999999999E-3</v>
       </c>
-      <c r="H9" s="67">
-        <v>0</v>
-      </c>
-      <c r="I9" s="68">
-        <v>0</v>
-      </c>
-      <c r="J9" s="77">
+      <c r="H9" s="73">
+        <v>0</v>
+      </c>
+      <c r="I9" s="74">
+        <v>0</v>
+      </c>
+      <c r="J9" s="41">
         <v>66</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="42">
         <v>1728.11034</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="11" t="s">
+      <c r="M9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="4" t="s">
@@ -1592,46 +2059,46 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>0.21015</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="72">
         <v>0.91482274944556696</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="13">
         <v>9.3900000000000008E-3</v>
       </c>
-      <c r="H10" s="67">
-        <v>0</v>
-      </c>
-      <c r="I10" s="68">
-        <v>0</v>
-      </c>
-      <c r="J10" s="77">
+      <c r="H10" s="73">
+        <v>0</v>
+      </c>
+      <c r="I10" s="74">
+        <v>0</v>
+      </c>
+      <c r="J10" s="41">
         <v>76.5</v>
       </c>
-      <c r="K10" s="78">
+      <c r="K10" s="42">
         <v>2432.6448300000002</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="4" t="s">
@@ -1639,46 +2106,46 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>0.22065000000000001</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>2.7E-4</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>0.5575</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>6.2E-4</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="72">
         <v>0.91730095392435596</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="13">
         <v>4.4099999999999999E-3</v>
       </c>
-      <c r="H11" s="67">
-        <v>0</v>
-      </c>
-      <c r="I11" s="68">
-        <v>0</v>
-      </c>
-      <c r="J11" s="77">
+      <c r="H11" s="73">
+        <v>0</v>
+      </c>
+      <c r="I11" s="74">
+        <v>0</v>
+      </c>
+      <c r="J11" s="41">
         <v>77</v>
       </c>
-      <c r="K11" s="78">
+      <c r="K11" s="42">
         <v>1776.68506</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="M11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="O11" s="4" t="s">
@@ -1686,46 +2153,46 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <v>0.22405</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="18">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="75">
         <v>0.91374444865627902</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="17">
         <v>6.0499999999999998E-3</v>
       </c>
-      <c r="H12" s="69">
-        <v>0</v>
-      </c>
-      <c r="I12" s="70">
-        <v>0</v>
-      </c>
-      <c r="J12" s="79">
+      <c r="H12" s="76">
+        <v>0</v>
+      </c>
+      <c r="I12" s="77">
+        <v>0</v>
+      </c>
+      <c r="J12" s="43">
         <v>147</v>
       </c>
-      <c r="K12" s="80">
+      <c r="K12" s="44">
         <v>8008.1333299999997</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="11" t="s">
+      <c r="M12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O12" s="4" t="s">
@@ -1733,46 +2200,46 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <v>0.22735</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>0.54449999999999998</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="75">
         <v>0.91144725171283003</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="17">
         <v>1.9E-3</v>
       </c>
-      <c r="H13" s="69">
-        <v>0</v>
-      </c>
-      <c r="I13" s="70">
-        <v>0</v>
-      </c>
-      <c r="J13" s="79">
+      <c r="H13" s="76">
+        <v>0</v>
+      </c>
+      <c r="I13" s="77">
+        <v>0</v>
+      </c>
+      <c r="J13" s="43">
         <v>127.5</v>
       </c>
-      <c r="K13" s="80">
+      <c r="K13" s="44">
         <v>3150.3551699999998</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="11" t="s">
+      <c r="M13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="O13" s="4" t="s">
@@ -1780,46 +2247,46 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <v>0.22864999999999999</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>1E-4</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="16">
         <v>0.54200000000000004</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="75">
         <v>0.91607260022761305</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="17">
         <v>1.5299999999999999E-3</v>
       </c>
-      <c r="H14" s="69">
-        <v>0</v>
-      </c>
-      <c r="I14" s="70">
-        <v>0</v>
-      </c>
-      <c r="J14" s="79">
+      <c r="H14" s="76">
+        <v>0</v>
+      </c>
+      <c r="I14" s="77">
+        <v>0</v>
+      </c>
+      <c r="J14" s="43">
         <v>184</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="44">
         <v>5071.9781599999997</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="O14" s="4" t="s">
@@ -1827,46 +2294,46 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <v>0.22450000000000001</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="17">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <v>0.54900000000000004</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="75">
         <v>0.914077006873524</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="17">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H15" s="69">
-        <v>0</v>
-      </c>
-      <c r="I15" s="70">
-        <v>0</v>
-      </c>
-      <c r="J15" s="79">
+      <c r="H15" s="76">
+        <v>0</v>
+      </c>
+      <c r="I15" s="77">
+        <v>0</v>
+      </c>
+      <c r="J15" s="43">
         <v>111.5</v>
       </c>
-      <c r="K15" s="80">
+      <c r="K15" s="44">
         <v>3438.8333299999999</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="11" t="s">
+      <c r="M15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="O15" s="4" t="s">
@@ -1874,46 +2341,46 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="20">
         <v>0.23874999999999999</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="21">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="20">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="22">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="78">
         <v>0.90583657537426998</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="21">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H16" s="71">
-        <v>0</v>
-      </c>
-      <c r="I16" s="72">
-        <v>0</v>
-      </c>
-      <c r="J16" s="81">
+      <c r="H16" s="79">
+        <v>0</v>
+      </c>
+      <c r="I16" s="80">
+        <v>0</v>
+      </c>
+      <c r="J16" s="45">
         <v>948.5</v>
       </c>
-      <c r="K16" s="82">
+      <c r="K16" s="46">
         <v>95802.133329999997</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="11" t="s">
+      <c r="M16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O16" s="4" t="s">
@@ -1921,46 +2388,46 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="20">
         <v>0.2389</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="21">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="20">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="22">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="78">
         <v>0.90583657537426998</v>
       </c>
-      <c r="G17" s="30">
-        <v>0</v>
-      </c>
-      <c r="H17" s="71">
-        <v>0</v>
-      </c>
-      <c r="I17" s="72">
-        <v>0</v>
-      </c>
-      <c r="J17" s="81">
+      <c r="G17" s="21">
+        <v>0</v>
+      </c>
+      <c r="H17" s="79">
+        <v>0</v>
+      </c>
+      <c r="I17" s="80">
+        <v>0</v>
+      </c>
+      <c r="J17" s="45">
         <v>977</v>
       </c>
-      <c r="K17" s="82">
+      <c r="K17" s="46">
         <v>46055.705750000001</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O17" s="4" t="s">
@@ -1968,46 +2435,46 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="20">
         <v>0.23899999999999999</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="21">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="20">
         <v>0.52149999999999996</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="22">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="78">
         <v>0.90577737930091695</v>
       </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="71">
-        <v>0</v>
-      </c>
-      <c r="I18" s="72">
-        <v>0</v>
-      </c>
-      <c r="J18" s="81">
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="79">
+        <v>0</v>
+      </c>
+      <c r="I18" s="80">
+        <v>0</v>
+      </c>
+      <c r="J18" s="45">
         <v>913</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="46">
         <v>70466.133329999997</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="11" t="s">
+      <c r="M18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O18" s="4" t="s">
@@ -2015,120 +2482,118 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="24">
         <v>0.24104999999999999</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="25">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="24">
         <v>0.51749999999999996</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="26">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="81">
         <v>0.90568554724324402</v>
       </c>
-      <c r="G19" s="36">
-        <v>0</v>
-      </c>
-      <c r="H19" s="73">
-        <v>0</v>
-      </c>
-      <c r="I19" s="74">
-        <v>0</v>
-      </c>
-      <c r="J19" s="83">
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="82">
+        <v>0</v>
+      </c>
+      <c r="I19" s="83">
+        <v>0</v>
+      </c>
+      <c r="J19" s="47">
         <v>953</v>
       </c>
-      <c r="K19" s="84">
+      <c r="K19" s="48">
         <v>72439.909199999995</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="39" t="s">
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53" t="s">
+      <c r="B23" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54" t="s">
+      <c r="E23" s="50"/>
+      <c r="F23" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55" t="s">
+      <c r="G23" s="51"/>
+      <c r="H23" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="55" t="s">
+      <c r="I23" s="55"/>
+      <c r="J23" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57" t="s">
+      <c r="K23" s="55"/>
+      <c r="L23" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="59"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="48" t="s">
+      <c r="G24" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="47" t="s">
+      <c r="H24" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="48" t="s">
+      <c r="K24" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" s="51" t="s">
+      <c r="L24" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="51" t="s">
+      <c r="N24" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="49" t="str">
+      <c r="O24" s="34" t="str">
         <f>O3</f>
         <v>Generations</v>
       </c>
@@ -2149,31 +2614,31 @@
       <c r="E25" s="8">
         <v>5.8E-4</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="69">
         <v>0.91777579281587096</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="7">
         <v>7.11E-3</v>
       </c>
-      <c r="H25" s="40">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="75">
+      <c r="H25" s="84">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="39">
         <v>44.5</v>
       </c>
-      <c r="K25" s="76">
+      <c r="K25" s="40">
         <v>386.83332999999999</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" s="11" t="s">
+      <c r="M25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O25" s="4" t="s">
@@ -2181,7 +2646,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="6">
@@ -2196,31 +2661,31 @@
       <c r="E26" s="8">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="69">
         <v>0.90759701446846397</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="7">
         <v>9.5700000000000004E-3</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="84">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I26" s="10">
-        <v>0</v>
-      </c>
-      <c r="J26" s="75">
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="39">
         <v>47</v>
       </c>
-      <c r="K26" s="76">
+      <c r="K26" s="40">
         <v>562.53332999999998</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N26" s="60" t="s">
+      <c r="M26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="30" t="s">
         <v>24</v>
       </c>
       <c r="O26" s="4" t="s">
@@ -2228,7 +2693,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="6">
@@ -2243,39 +2708,39 @@
       <c r="E27" s="8">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="69">
         <v>0.91482274944556696</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="7">
         <v>6.8500000000000002E-3</v>
       </c>
-      <c r="H27" s="40">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0</v>
-      </c>
-      <c r="J27" s="75">
+      <c r="H27" s="84">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="39">
         <v>36</v>
       </c>
-      <c r="K27" s="76">
+      <c r="K27" s="40">
         <v>460.47816</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="44" t="s">
+      <c r="M27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="6">
@@ -2290,31 +2755,31 @@
       <c r="E28" s="8">
         <v>9.3000000000000005E-4</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="69">
         <v>0.91262296724643099</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="7">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="H28" s="40">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0</v>
-      </c>
-      <c r="J28" s="75">
+      <c r="H28" s="84">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="39">
         <v>43</v>
       </c>
-      <c r="K28" s="76">
+      <c r="K28" s="40">
         <v>1041.3574699999999</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N28" s="11" t="s">
+      <c r="M28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O28" s="4" t="s">
@@ -2322,46 +2787,46 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>0.22409999999999999</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <v>0.55049999999999999</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="72">
         <v>0.91526794130700495</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="13">
         <v>3.2699999999999999E-3</v>
       </c>
-      <c r="H29" s="41">
-        <v>0</v>
-      </c>
-      <c r="I29" s="18">
-        <v>0</v>
-      </c>
-      <c r="J29" s="77">
+      <c r="H29" s="85">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="41">
         <v>80.5</v>
       </c>
-      <c r="K29" s="78">
+      <c r="K29" s="42">
         <v>1578.1379300000001</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="11" t="s">
+      <c r="M29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="4" t="s">
@@ -2369,46 +2834,46 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <v>0.22675000000000001</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <v>0.54549999999999998</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="72">
         <v>0.91065644986831196</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="13">
         <v>3.9399999999999999E-3</v>
       </c>
-      <c r="H30" s="41">
-        <v>0</v>
-      </c>
-      <c r="I30" s="18">
-        <v>0</v>
-      </c>
-      <c r="J30" s="77">
+      <c r="H30" s="85">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="41">
         <v>66</v>
       </c>
-      <c r="K30" s="78">
+      <c r="K30" s="42">
         <v>1728.11034</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N30" s="11" t="s">
+      <c r="M30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="4" t="s">
@@ -2416,46 +2881,46 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="12">
         <v>0.21015</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="72">
         <v>0.91482274944556696</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="13">
         <v>9.3900000000000008E-3</v>
       </c>
-      <c r="H31" s="41">
-        <v>0</v>
-      </c>
-      <c r="I31" s="18">
-        <v>0</v>
-      </c>
-      <c r="J31" s="77">
+      <c r="H31" s="85">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="41">
         <v>76.5</v>
       </c>
-      <c r="K31" s="78">
+      <c r="K31" s="42">
         <v>2432.6448300000002</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" s="11" t="s">
+      <c r="M31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O31" s="4" t="s">
@@ -2463,240 +2928,1012 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>0.22065000000000001</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="13">
         <v>2.7E-4</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <v>0.5575</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="14">
         <v>6.2E-4</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="72">
         <v>0.91730095392435596</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="13">
         <v>4.4099999999999999E-3</v>
       </c>
-      <c r="H32" s="41">
-        <v>0</v>
-      </c>
-      <c r="I32" s="18">
-        <v>0</v>
-      </c>
-      <c r="J32" s="77">
+      <c r="H32" s="85">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="41">
         <v>77</v>
       </c>
-      <c r="K32" s="78">
+      <c r="K32" s="42">
         <v>1776.68506</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" s="11" t="s">
+      <c r="M32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="16">
         <v>0.22405</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="17">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="18">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="75">
         <v>0.91374444865627902</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="17">
         <v>6.0499999999999998E-3</v>
       </c>
-      <c r="H33" s="42">
-        <v>0</v>
-      </c>
-      <c r="I33" s="24">
-        <v>0</v>
-      </c>
-      <c r="J33" s="79">
+      <c r="H33" s="86">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17">
+        <v>0</v>
+      </c>
+      <c r="J33" s="43">
         <v>147</v>
       </c>
-      <c r="K33" s="80">
+      <c r="K33" s="44">
         <v>8008.1333299999997</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="11" t="s">
+      <c r="M33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="16">
         <v>0.22735</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="16">
         <v>0.54449999999999998</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="18">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="75">
         <v>0.91144725171283003</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="17">
         <v>1.9E-3</v>
       </c>
-      <c r="H34" s="42">
-        <v>0</v>
-      </c>
-      <c r="I34" s="24">
-        <v>0</v>
-      </c>
-      <c r="J34" s="79">
+      <c r="H34" s="86">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="J34" s="43">
         <v>127.5</v>
       </c>
-      <c r="K34" s="80">
+      <c r="K34" s="44">
         <v>3150.3551699999998</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" s="11" t="s">
+      <c r="M34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="9" t="s">
         <v>8</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="16">
         <v>0.22864999999999999</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="17">
         <v>1E-4</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="16">
         <v>0.54200000000000004</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="18">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="75">
         <v>0.91607260022761305</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="17">
         <v>1.5299999999999999E-3</v>
       </c>
-      <c r="H35" s="42">
-        <v>0</v>
-      </c>
-      <c r="I35" s="24">
-        <v>0</v>
-      </c>
-      <c r="J35" s="79">
+      <c r="H35" s="86">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0</v>
+      </c>
+      <c r="J35" s="43">
         <v>184</v>
       </c>
-      <c r="K35" s="80">
+      <c r="K35" s="44">
         <v>5071.9781599999997</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="43"/>
-      <c r="N35" s="11" t="s">
+      <c r="M35" s="53"/>
+      <c r="N35" s="9" t="s">
         <v>7</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="16">
         <v>0.22450000000000001</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="17">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="16">
         <v>0.54900000000000004</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="18">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="75">
         <v>0.914077006873524</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="17">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H36" s="42">
-        <v>0</v>
-      </c>
-      <c r="I36" s="24">
-        <v>0</v>
-      </c>
-      <c r="J36" s="79">
+      <c r="H36" s="86">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="43">
         <v>111.5</v>
       </c>
-      <c r="K36" s="80">
+      <c r="K36" s="44">
         <v>3438.8333299999999</v>
       </c>
-      <c r="L36" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="N36" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" s="39" t="s">
-        <v>7</v>
+      <c r="L36" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="49"/>
+      <c r="L42" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="68"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="60" t="str">
+        <f>B42</f>
+        <v>HV@30</v>
+      </c>
+      <c r="M43" s="61" t="str">
+        <f>D42</f>
+        <v>HV@50</v>
+      </c>
+      <c r="N43" s="61" t="str">
+        <f>F42</f>
+        <v>HV@75</v>
+      </c>
+      <c r="O43" s="61" t="str">
+        <f>H42</f>
+        <v>HV@125</v>
+      </c>
+      <c r="P43" s="62" t="str">
+        <f>J42</f>
+        <v>HV@200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.19107199999999999</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6">
+        <v>0.209455</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6">
+        <v>0.210518499999999</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="6">
+        <v>0.21272749999999899</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="6">
+        <v>0.21272749999999899</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.1860405</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6">
+        <v>0.19561899999999999</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6">
+        <v>0.21384049999999999</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="6">
+        <v>0.21384049999999999</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="6">
+        <v>0.21384049999999999</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.201899999999999</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="6">
+        <v>0.215138</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6">
+        <v>0.21841450000000001</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="6">
+        <v>0.21960499999999999</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="6">
+        <v>0.21960499999999999</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.19843549999999999</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6">
+        <v>0.208592999999999</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6">
+        <v>0.2148735</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6">
+        <v>0.21631649999999999</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="6">
+        <v>0.21662799999999999</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0.203361499999999</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12">
+        <v>0.21787199999999901</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="12">
+        <v>0.22057750000000001</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="12">
+        <v>0.22247549999999999</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="12">
+        <v>0.224074</v>
+      </c>
+      <c r="K48" s="13"/>
+      <c r="L48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.1890125</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12">
+        <v>0.21513399999999999</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="12">
+        <v>0.22188350000000001</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="12">
+        <v>0.22620899999999999</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="12">
+        <v>0.22672700000000001</v>
+      </c>
+      <c r="K49" s="13"/>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0.18756700000000001</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12">
+        <v>0.19998299999999999</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="12">
+        <v>0.20658599999999899</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="12">
+        <v>0.206597999999999</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="12">
+        <v>0.21015199999999901</v>
+      </c>
+      <c r="K50" s="13"/>
+      <c r="L50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0.17828949999999999</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12">
+        <v>0.214284999999999</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="12">
+        <v>0.21685499999999999</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="12">
+        <v>0.21888299999999999</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="12">
+        <v>0.22068299999999999</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.187523</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="16">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="16">
+        <v>0.21575</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="16">
+        <v>0.22217699999999899</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="16">
+        <v>0.22368849999999901</v>
+      </c>
+      <c r="K52" s="17"/>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="16">
+        <v>0.19417300000000001</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="16">
+        <v>0.2061105</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="16">
+        <v>0.21602499999999999</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="16">
+        <v>0.22610350000000001</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="16">
+        <v>0.22733999999999999</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="16">
+        <v>0.18425549999999999</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="16">
+        <v>0.20700249999999901</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="16">
+        <v>0.2195675</v>
+      </c>
+      <c r="G54" s="17"/>
+      <c r="H54" s="16">
+        <v>0.221915999999999</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="16">
+        <v>0.22763249999999899</v>
+      </c>
+      <c r="K54" s="17"/>
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="16">
+        <v>0.20187849999999999</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="16">
+        <v>0.21612100000000001</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="16">
+        <v>0.21720300000000001</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="16">
+        <v>0.221054</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="16">
+        <v>0.224504499999999</v>
+      </c>
+      <c r="K55" s="17"/>
+      <c r="L55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="20">
+        <v>0.1864625</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="20">
+        <v>0.2153185</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="20">
+        <v>0.21998899999999999</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="20">
+        <v>0.226079</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="20">
+        <v>0.22846350000000001</v>
+      </c>
+      <c r="K56" s="21"/>
+      <c r="L56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="20">
+        <v>0.19761200000000001</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="20">
+        <v>0.21463499999999899</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="20">
+        <v>0.21693399999999999</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="20">
+        <v>0.21992049999999999</v>
+      </c>
+      <c r="I57" s="21"/>
+      <c r="J57" s="20">
+        <v>0.225074999999999</v>
+      </c>
+      <c r="K57" s="21"/>
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="20">
+        <v>0.17567050000000001</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="20">
+        <v>0.18843799999999999</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="20">
+        <v>0.20649899999999999</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="20">
+        <v>0.22538849999999999</v>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="20">
+        <v>0.2298345</v>
+      </c>
+      <c r="K58" s="21"/>
+      <c r="L58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="24">
+        <v>0.20179149999999901</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="24">
+        <v>0.21457199999999901</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="24">
+        <v>0.21744150000000001</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="24">
+        <v>0.22283499999999901</v>
+      </c>
+      <c r="I59" s="25"/>
+      <c r="J59" s="24">
+        <v>0.2290075</v>
+      </c>
+      <c r="K59" s="25"/>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="87">
+        <f>MAX(B44:B59)</f>
+        <v>0.203361499999999</v>
+      </c>
+      <c r="C60" s="87">
+        <f t="shared" ref="C60:J60" si="0">MAX(C44:C59)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="87">
+        <f t="shared" si="0"/>
+        <v>0.21787199999999901</v>
+      </c>
+      <c r="E60" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="87">
+        <f t="shared" si="0"/>
+        <v>0.22188350000000001</v>
+      </c>
+      <c r="G60" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="87">
+        <f t="shared" si="0"/>
+        <v>0.22620899999999999</v>
+      </c>
+      <c r="I60" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="87">
+        <f t="shared" si="0"/>
+        <v>0.2298345</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:O2"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
@@ -2704,52 +3941,173 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="L23:O23"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:O5 L7:O18 L6:N6">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="51" priority="48">
       <formula>L4="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="50" priority="49">
       <formula>L4="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36:N36 L25:N25 L27:N34 L26:M26">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>L25="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>L25="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>N35="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="46" priority="53">
       <formula>N35="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="45" priority="45">
       <formula>O19="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>O19="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:O26 O28:O36">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="43" priority="43">
       <formula>O25="~"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>O25="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:M44 L49 L45:L47 N45:O45 L50:O50 L53:N53 L51:M52 L54:M58 O44">
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>L44="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>L44="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44:P45 P47:P57">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>P44="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>P44="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P59">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>P59="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>P59="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:P46">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>O46="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>O46="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>L59="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>L59="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M45:M47">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>M45="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>M45="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M59">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>M59="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>M59="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>M49="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>M49="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N46:N47 O47">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>N46="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>N46="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51:O52">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>N51="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>N51="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54:O55">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>N54="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>N54="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56:O57">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>N56="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>N56="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N58:O59">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>N58="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>N58="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N48:O48">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>N48="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>N48="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>N44="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>N44="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>O53="~"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>O25="-"</formula>
+      <formula>O53="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/general/Genetic algorithm/mutation_comparison.xlsx
+++ b/general/Genetic algorithm/mutation_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tamir\תואר שני\master\Master_git\Master\general\Genetic algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9EA3A1-C591-4B79-813D-CD1A6A37891C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC1DFF-440C-4F48-A106-A96BA1CB39BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="34">
   <si>
     <t>HV</t>
   </si>
@@ -131,6 +131,9 @@
   <si>
     <t>HV@200</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -576,45 +579,6 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -658,11 +622,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -808,6 +792,66 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,10 +861,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,152 +873,38 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill>
@@ -1675,27 +1605,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="2" customWidth="1"/>
+    <col min="7" max="10" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1705,32 +1632,32 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="58" t="s">
+      <c r="G2" s="71"/>
+      <c r="H2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="54" t="s">
+      <c r="I2" s="77"/>
+      <c r="J2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="63" t="s">
+      <c r="K2" s="75"/>
+      <c r="L2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="65"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="32" t="s">
@@ -1792,16 +1719,16 @@
       <c r="E4" s="8">
         <v>5.8E-4</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="52">
         <v>0.91777579281587096</v>
       </c>
       <c r="G4" s="7">
         <v>7.11E-3</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="53">
         <v>0</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="54">
         <v>0</v>
       </c>
       <c r="J4" s="39">
@@ -1839,16 +1766,16 @@
       <c r="E5" s="8">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="52">
         <v>0.90759701446846397</v>
       </c>
       <c r="G5" s="7">
         <v>9.5700000000000004E-3</v>
       </c>
-      <c r="H5" s="70">
+      <c r="H5" s="53">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="54">
         <v>0</v>
       </c>
       <c r="J5" s="39">
@@ -1886,16 +1813,16 @@
       <c r="E6" s="8">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="52">
         <v>0.91482274944556696</v>
       </c>
       <c r="G6" s="7">
         <v>6.8500000000000002E-3</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="53">
         <v>0</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="54">
         <v>0</v>
       </c>
       <c r="J6" s="39">
@@ -1933,16 +1860,16 @@
       <c r="E7" s="8">
         <v>9.3000000000000005E-4</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="52">
         <v>0.91262296724643099</v>
       </c>
       <c r="G7" s="7">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="53">
         <v>0</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="54">
         <v>0</v>
       </c>
       <c r="J7" s="39">
@@ -1980,16 +1907,16 @@
       <c r="E8" s="14">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="55">
         <v>0.91526794130700495</v>
       </c>
       <c r="G8" s="13">
         <v>3.2699999999999999E-3</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="56">
         <v>0</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="57">
         <v>0</v>
       </c>
       <c r="J8" s="41">
@@ -2027,16 +1954,16 @@
       <c r="E9" s="14">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="55">
         <v>0.91065644986831196</v>
       </c>
       <c r="G9" s="13">
         <v>3.9399999999999999E-3</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="56">
         <v>0</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="57">
         <v>0</v>
       </c>
       <c r="J9" s="41">
@@ -2074,16 +2001,16 @@
       <c r="E10" s="14">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="55">
         <v>0.91482274944556696</v>
       </c>
       <c r="G10" s="13">
         <v>9.3900000000000008E-3</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="56">
         <v>0</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="57">
         <v>0</v>
       </c>
       <c r="J10" s="41">
@@ -2121,16 +2048,16 @@
       <c r="E11" s="14">
         <v>6.2E-4</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="55">
         <v>0.91730095392435596</v>
       </c>
       <c r="G11" s="13">
         <v>4.4099999999999999E-3</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="56">
         <v>0</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="57">
         <v>0</v>
       </c>
       <c r="J11" s="41">
@@ -2168,16 +2095,16 @@
       <c r="E12" s="18">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="58">
         <v>0.91374444865627902</v>
       </c>
       <c r="G12" s="17">
         <v>6.0499999999999998E-3</v>
       </c>
-      <c r="H12" s="76">
+      <c r="H12" s="59">
         <v>0</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="60">
         <v>0</v>
       </c>
       <c r="J12" s="43">
@@ -2215,16 +2142,16 @@
       <c r="E13" s="18">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="58">
         <v>0.91144725171283003</v>
       </c>
       <c r="G13" s="17">
         <v>1.9E-3</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="59">
         <v>0</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="60">
         <v>0</v>
       </c>
       <c r="J13" s="43">
@@ -2262,16 +2189,16 @@
       <c r="E14" s="18">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="58">
         <v>0.91607260022761305</v>
       </c>
       <c r="G14" s="17">
         <v>1.5299999999999999E-3</v>
       </c>
-      <c r="H14" s="76">
+      <c r="H14" s="59">
         <v>0</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="60">
         <v>0</v>
       </c>
       <c r="J14" s="43">
@@ -2309,16 +2236,16 @@
       <c r="E15" s="18">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="58">
         <v>0.914077006873524</v>
       </c>
       <c r="G15" s="17">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="59">
         <v>0</v>
       </c>
-      <c r="I15" s="77">
+      <c r="I15" s="60">
         <v>0</v>
       </c>
       <c r="J15" s="43">
@@ -2356,16 +2283,16 @@
       <c r="E16" s="22">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="61">
         <v>0.90583657537426998</v>
       </c>
       <c r="G16" s="21">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H16" s="79">
+      <c r="H16" s="62">
         <v>0</v>
       </c>
-      <c r="I16" s="80">
+      <c r="I16" s="63">
         <v>0</v>
       </c>
       <c r="J16" s="45">
@@ -2403,16 +2330,16 @@
       <c r="E17" s="22">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="61">
         <v>0.90583657537426998</v>
       </c>
       <c r="G17" s="21">
         <v>0</v>
       </c>
-      <c r="H17" s="79">
+      <c r="H17" s="62">
         <v>0</v>
       </c>
-      <c r="I17" s="80">
+      <c r="I17" s="63">
         <v>0</v>
       </c>
       <c r="J17" s="45">
@@ -2450,16 +2377,16 @@
       <c r="E18" s="22">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="61">
         <v>0.90577737930091695</v>
       </c>
       <c r="G18" s="21">
         <v>0</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="62">
         <v>0</v>
       </c>
-      <c r="I18" s="80">
+      <c r="I18" s="63">
         <v>0</v>
       </c>
       <c r="J18" s="45">
@@ -2497,16 +2424,16 @@
       <c r="E19" s="26">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="64">
         <v>0.90568554724324402</v>
       </c>
       <c r="G19" s="25">
         <v>0</v>
       </c>
-      <c r="H19" s="82">
+      <c r="H19" s="65">
         <v>0</v>
       </c>
-      <c r="I19" s="83">
+      <c r="I19" s="66">
         <v>0</v>
       </c>
       <c r="J19" s="47">
@@ -2515,43 +2442,39 @@
       <c r="K19" s="48">
         <v>72439.909199999995</v>
       </c>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
       <c r="O19" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50" t="s">
+      <c r="C23" s="69"/>
+      <c r="D23" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51" t="s">
+      <c r="E23" s="70"/>
+      <c r="F23" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="55"/>
-      <c r="J23" s="54" t="s">
+      <c r="G23" s="71"/>
+      <c r="H23" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="55"/>
-      <c r="L23" s="63" t="s">
+      <c r="I23" s="75"/>
+      <c r="J23" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="65"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="80"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="32" t="s">
@@ -2579,21 +2502,15 @@
         <v>5</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M24" s="36" t="s">
+      <c r="K24" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="L24" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="34" t="str">
+      <c r="M24" s="34" t="str">
         <f>O3</f>
         <v>Generations</v>
       </c>
@@ -2614,34 +2531,28 @@
       <c r="E25" s="8">
         <v>5.8E-4</v>
       </c>
-      <c r="F25" s="69">
+      <c r="F25" s="52">
         <v>0.91777579281587096</v>
       </c>
       <c r="G25" s="7">
         <v>7.11E-3</v>
       </c>
-      <c r="H25" s="84">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="39">
+      <c r="H25" s="39">
         <v>44.5</v>
       </c>
-      <c r="K25" s="40">
+      <c r="I25" s="40">
         <v>386.83332999999999</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O25" s="4" t="s">
+      <c r="J25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2661,34 +2572,28 @@
       <c r="E26" s="8">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="52">
         <v>0.90759701446846397</v>
       </c>
       <c r="G26" s="7">
         <v>9.5700000000000004E-3</v>
       </c>
-      <c r="H26" s="84">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="39">
+      <c r="H26" s="39">
         <v>47</v>
       </c>
-      <c r="K26" s="40">
+      <c r="I26" s="40">
         <v>562.53332999999998</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N26" s="30" t="s">
+      <c r="J26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2708,34 +2613,28 @@
       <c r="E27" s="8">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="52">
         <v>0.91482274944556696</v>
       </c>
       <c r="G27" s="7">
         <v>6.8500000000000002E-3</v>
       </c>
-      <c r="H27" s="84">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="39">
+      <c r="H27" s="39">
         <v>36</v>
       </c>
-      <c r="K27" s="40">
+      <c r="I27" s="40">
         <v>460.47816</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="31" t="s">
+      <c r="J27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="31" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2755,34 +2654,28 @@
       <c r="E28" s="8">
         <v>9.3000000000000005E-4</v>
       </c>
-      <c r="F28" s="69">
+      <c r="F28" s="52">
         <v>0.91262296724643099</v>
       </c>
       <c r="G28" s="7">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="H28" s="84">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="39">
+      <c r="H28" s="39">
         <v>43</v>
       </c>
-      <c r="K28" s="40">
+      <c r="I28" s="40">
         <v>1041.3574699999999</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O28" s="4" t="s">
+      <c r="J28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2802,34 +2695,28 @@
       <c r="E29" s="14">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="55">
         <v>0.91526794130700495</v>
       </c>
       <c r="G29" s="13">
         <v>3.2699999999999999E-3</v>
       </c>
-      <c r="H29" s="85">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="41">
+      <c r="H29" s="41">
         <v>80.5</v>
       </c>
-      <c r="K29" s="42">
+      <c r="I29" s="42">
         <v>1578.1379300000001</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="4" t="s">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2849,34 +2736,28 @@
       <c r="E30" s="14">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="F30" s="72">
+      <c r="F30" s="55">
         <v>0.91065644986831196</v>
       </c>
       <c r="G30" s="13">
         <v>3.9399999999999999E-3</v>
       </c>
-      <c r="H30" s="85">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13">
-        <v>0</v>
-      </c>
-      <c r="J30" s="41">
+      <c r="H30" s="41">
         <v>66</v>
       </c>
-      <c r="K30" s="42">
+      <c r="I30" s="42">
         <v>1728.11034</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O30" s="4" t="s">
+      <c r="J30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2896,34 +2777,28 @@
       <c r="E31" s="14">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="F31" s="72">
+      <c r="F31" s="55">
         <v>0.91482274944556696</v>
       </c>
       <c r="G31" s="13">
         <v>9.3900000000000008E-3</v>
       </c>
-      <c r="H31" s="85">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="41">
+      <c r="H31" s="41">
         <v>76.5</v>
       </c>
-      <c r="K31" s="42">
+      <c r="I31" s="42">
         <v>2432.6448300000002</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O31" s="4" t="s">
+      <c r="J31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2943,34 +2818,28 @@
       <c r="E32" s="14">
         <v>6.2E-4</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F32" s="55">
         <v>0.91730095392435596</v>
       </c>
       <c r="G32" s="13">
         <v>4.4099999999999999E-3</v>
       </c>
-      <c r="H32" s="85">
-        <v>0</v>
-      </c>
-      <c r="I32" s="13">
-        <v>0</v>
-      </c>
-      <c r="J32" s="41">
+      <c r="H32" s="41">
         <v>77</v>
       </c>
-      <c r="K32" s="42">
+      <c r="I32" s="42">
         <v>1776.68506</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="4" t="s">
+      <c r="J32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2990,34 +2859,28 @@
       <c r="E33" s="18">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="F33" s="75">
+      <c r="F33" s="58">
         <v>0.91374444865627902</v>
       </c>
       <c r="G33" s="17">
         <v>6.0499999999999998E-3</v>
       </c>
-      <c r="H33" s="86">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="43">
+      <c r="H33" s="43">
         <v>147</v>
       </c>
-      <c r="K33" s="44">
+      <c r="I33" s="44">
         <v>8008.1333299999997</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="4" t="s">
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3037,34 +2900,28 @@
       <c r="E34" s="18">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="F34" s="75">
+      <c r="F34" s="58">
         <v>0.91144725171283003</v>
       </c>
       <c r="G34" s="17">
         <v>1.9E-3</v>
       </c>
-      <c r="H34" s="86">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
-        <v>0</v>
-      </c>
-      <c r="J34" s="43">
+      <c r="H34" s="43">
         <v>127.5</v>
       </c>
-      <c r="K34" s="44">
+      <c r="I34" s="44">
         <v>3150.3551699999998</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O34" s="4" t="s">
+      <c r="J34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3084,32 +2941,26 @@
       <c r="E35" s="18">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="F35" s="75">
+      <c r="F35" s="58">
         <v>0.91607260022761305</v>
       </c>
       <c r="G35" s="17">
         <v>1.5299999999999999E-3</v>
       </c>
-      <c r="H35" s="86">
-        <v>0</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0</v>
-      </c>
-      <c r="J35" s="43">
+      <c r="H35" s="43">
         <v>184</v>
       </c>
-      <c r="K35" s="44">
+      <c r="I35" s="44">
         <v>5071.9781599999997</v>
       </c>
-      <c r="L35" s="52" t="s">
+      <c r="J35" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="53"/>
-      <c r="N35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O35" s="4" t="s">
+      <c r="K35" s="82"/>
+      <c r="L35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3129,65 +2980,63 @@
       <c r="E36" s="18">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="F36" s="75">
+      <c r="F36" s="58">
         <v>0.914077006873524</v>
       </c>
       <c r="G36" s="17">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H36" s="86">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0</v>
-      </c>
-      <c r="J36" s="43">
+      <c r="H36" s="43">
         <v>111.5</v>
       </c>
-      <c r="K36" s="44">
+      <c r="I36" s="44">
         <v>3438.8333299999999</v>
       </c>
-      <c r="L36" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="N36" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" s="29" t="s">
+      <c r="J36" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49" t="s">
+      <c r="C42" s="69"/>
+      <c r="D42" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49" t="s">
+      <c r="E42" s="69"/>
+      <c r="F42" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49" t="s">
+      <c r="G42" s="69"/>
+      <c r="H42" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49" t="s">
+      <c r="I42" s="69"/>
+      <c r="J42" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="49"/>
-      <c r="L42" s="66" t="s">
+      <c r="K42" s="69"/>
+      <c r="L42" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="68"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="32" t="s">
@@ -3220,23 +3069,23 @@
       <c r="K43" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="60" t="str">
+      <c r="L43" s="49" t="str">
         <f>B42</f>
         <v>HV@30</v>
       </c>
-      <c r="M43" s="61" t="str">
+      <c r="M43" s="50" t="str">
         <f>D42</f>
         <v>HV@50</v>
       </c>
-      <c r="N43" s="61" t="str">
+      <c r="N43" s="50" t="str">
         <f>F42</f>
         <v>HV@75</v>
       </c>
-      <c r="O43" s="61" t="str">
+      <c r="O43" s="50" t="str">
         <f>H42</f>
         <v>HV@125</v>
       </c>
-      <c r="P43" s="62" t="str">
+      <c r="P43" s="51" t="str">
         <f>J42</f>
         <v>HV@200</v>
       </c>
@@ -3248,23 +3097,33 @@
       <c r="B44" s="6">
         <v>0.19107199999999999</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7">
+        <v>5.9290917418505697E-4</v>
+      </c>
       <c r="D44" s="6">
         <v>0.209455</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="7">
+        <v>5.2221537010229801E-4</v>
+      </c>
       <c r="F44" s="6">
         <v>0.210518499999999</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>0.210518499999999</v>
+      </c>
       <c r="H44" s="6">
         <v>0.21272749999999899</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="7">
+        <v>4.7013501167816099E-4</v>
+      </c>
       <c r="J44" s="6">
         <v>0.21272749999999899</v>
       </c>
-      <c r="K44" s="7"/>
+      <c r="K44" s="7">
+        <v>0.21272749999999899</v>
+      </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3288,23 +3147,33 @@
       <c r="B45" s="6">
         <v>0.1860405</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7">
+        <v>6.8163160402413695E-4</v>
+      </c>
       <c r="D45" s="6">
         <v>0.19561899999999999</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="7">
+        <v>6.3810848007931004E-4</v>
+      </c>
       <c r="F45" s="6">
         <v>0.21384049999999999</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>0.21384049999999999</v>
+      </c>
       <c r="H45" s="6">
         <v>0.21384049999999999</v>
       </c>
-      <c r="I45" s="7"/>
+      <c r="I45" s="7">
+        <v>5.7122745125172403E-4</v>
+      </c>
       <c r="J45" s="6">
         <v>0.21384049999999999</v>
       </c>
-      <c r="K45" s="7"/>
+      <c r="K45" s="7">
+        <v>0.21384049999999999</v>
+      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3328,23 +3197,33 @@
       <c r="B46" s="6">
         <v>0.201899999999999</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7">
+        <v>6.9067889978850501E-4</v>
+      </c>
       <c r="D46" s="6">
         <v>0.215138</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="7">
+        <v>5.3283281412068895E-4</v>
+      </c>
       <c r="F46" s="6">
         <v>0.21841450000000001</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>0.21841450000000001</v>
+      </c>
       <c r="H46" s="6">
         <v>0.21960499999999999</v>
       </c>
-      <c r="I46" s="7"/>
+      <c r="I46" s="7">
+        <v>4.56623601040229E-4</v>
+      </c>
       <c r="J46" s="6">
         <v>0.21960499999999999</v>
       </c>
-      <c r="K46" s="7"/>
+      <c r="K46" s="7">
+        <v>0.21960499999999999</v>
+      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3368,23 +3247,33 @@
       <c r="B47" s="6">
         <v>0.19843549999999999</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7">
+        <v>8.6877448322298702E-4</v>
+      </c>
       <c r="D47" s="6">
         <v>0.208592999999999</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="7">
+        <v>7.0150700427126301E-4</v>
+      </c>
       <c r="F47" s="6">
         <v>0.2148735</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>0.2148735</v>
+      </c>
       <c r="H47" s="6">
         <v>0.21631649999999999</v>
       </c>
-      <c r="I47" s="7"/>
+      <c r="I47" s="7">
+        <v>6.7045088409195303E-4</v>
+      </c>
       <c r="J47" s="6">
         <v>0.21662799999999999</v>
       </c>
-      <c r="K47" s="7"/>
+      <c r="K47" s="7">
+        <v>0.21662799999999999</v>
+      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3408,23 +3297,33 @@
       <c r="B48" s="12">
         <v>0.203361499999999</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="13">
+        <v>4.5042979085057401E-4</v>
+      </c>
       <c r="D48" s="12">
         <v>0.21787199999999901</v>
       </c>
-      <c r="E48" s="13"/>
+      <c r="E48" s="13">
+        <v>2.9912044948160899E-4</v>
+      </c>
       <c r="F48" s="12">
         <v>0.22057750000000001</v>
       </c>
-      <c r="G48" s="13"/>
+      <c r="G48" s="13">
+        <v>0.22057750000000001</v>
+      </c>
       <c r="H48" s="12">
         <v>0.22247549999999999</v>
       </c>
-      <c r="I48" s="13"/>
+      <c r="I48" s="13">
+        <v>1.6884043738505701E-4</v>
+      </c>
       <c r="J48" s="12">
         <v>0.224074</v>
       </c>
-      <c r="K48" s="13"/>
+      <c r="K48" s="13">
+        <v>0.224074</v>
+      </c>
       <c r="L48" s="1" t="s">
         <v>24</v>
       </c>
@@ -3442,29 +3341,39 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="88" t="s">
+      <c r="A49" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="12">
         <v>0.1890125</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="13">
+        <v>5.0424316696091897E-4</v>
+      </c>
       <c r="D49" s="12">
         <v>0.21513399999999999</v>
       </c>
-      <c r="E49" s="13"/>
+      <c r="E49" s="13">
+        <v>4.6312097480574602E-4</v>
+      </c>
       <c r="F49" s="12">
         <v>0.22188350000000001</v>
       </c>
-      <c r="G49" s="13"/>
+      <c r="G49" s="13">
+        <v>0.22188350000000001</v>
+      </c>
       <c r="H49" s="12">
         <v>0.22620899999999999</v>
       </c>
-      <c r="I49" s="13"/>
+      <c r="I49" s="13">
+        <v>3.4552465894712602E-4</v>
+      </c>
       <c r="J49" s="12">
         <v>0.22672700000000001</v>
       </c>
-      <c r="K49" s="13"/>
+      <c r="K49" s="13">
+        <v>0.22672700000000001</v>
+      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3488,23 +3397,33 @@
       <c r="B50" s="12">
         <v>0.18756700000000001</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13">
+        <v>4.9131741278275797E-4</v>
+      </c>
       <c r="D50" s="12">
         <v>0.19998299999999999</v>
       </c>
-      <c r="E50" s="13"/>
+      <c r="E50" s="13">
+        <v>5.2350404997816001E-4</v>
+      </c>
       <c r="F50" s="12">
         <v>0.20658599999999899</v>
       </c>
-      <c r="G50" s="13"/>
+      <c r="G50" s="13">
+        <v>0.20658599999999899</v>
+      </c>
       <c r="H50" s="12">
         <v>0.206597999999999</v>
       </c>
-      <c r="I50" s="13"/>
+      <c r="I50" s="13">
+        <v>4.0594849329310298E-4</v>
+      </c>
       <c r="J50" s="12">
         <v>0.21015199999999901</v>
       </c>
-      <c r="K50" s="13"/>
+      <c r="K50" s="13">
+        <v>0.21015199999999901</v>
+      </c>
       <c r="L50" s="3" t="s">
         <v>7</v>
       </c>
@@ -3528,23 +3447,33 @@
       <c r="B51" s="12">
         <v>0.17828949999999999</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13">
+        <v>5.00282865291953E-4</v>
+      </c>
       <c r="D51" s="12">
         <v>0.214284999999999</v>
       </c>
-      <c r="E51" s="13"/>
+      <c r="E51" s="13">
+        <v>3.9503125298850499E-4</v>
+      </c>
       <c r="F51" s="12">
         <v>0.21685499999999999</v>
       </c>
-      <c r="G51" s="13"/>
+      <c r="G51" s="13">
+        <v>0.21685499999999999</v>
+      </c>
       <c r="H51" s="12">
         <v>0.21888299999999999</v>
       </c>
-      <c r="I51" s="13"/>
+      <c r="I51" s="13">
+        <v>2.8657345262643599E-4</v>
+      </c>
       <c r="J51" s="12">
         <v>0.22068299999999999</v>
       </c>
-      <c r="K51" s="13"/>
+      <c r="K51" s="13">
+        <v>0.22068299999999999</v>
+      </c>
       <c r="L51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3568,23 +3497,33 @@
       <c r="B52" s="16">
         <v>0.187523</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="17">
+        <v>6.5741304046091904E-4</v>
+      </c>
       <c r="D52" s="16">
         <v>0.20588200000000001</v>
       </c>
-      <c r="E52" s="17"/>
+      <c r="E52" s="17">
+        <v>6.4979160455747097E-4</v>
+      </c>
       <c r="F52" s="16">
         <v>0.21575</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="17">
+        <v>0.21575</v>
+      </c>
       <c r="H52" s="16">
         <v>0.22217699999999899</v>
       </c>
-      <c r="I52" s="17"/>
+      <c r="I52" s="17">
+        <v>2.86001905334482E-4</v>
+      </c>
       <c r="J52" s="16">
         <v>0.22368849999999901</v>
       </c>
-      <c r="K52" s="17"/>
+      <c r="K52" s="17">
+        <v>0.22368849999999901</v>
+      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3608,23 +3547,33 @@
       <c r="B53" s="16">
         <v>0.19417300000000001</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="17">
+        <v>6.4570752812068903E-4</v>
+      </c>
       <c r="D53" s="16">
         <v>0.2061105</v>
       </c>
-      <c r="E53" s="17"/>
+      <c r="E53" s="17">
+        <v>5.91585519222988E-4</v>
+      </c>
       <c r="F53" s="16">
         <v>0.21602499999999999</v>
       </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="17">
+        <v>0.21602499999999999</v>
+      </c>
       <c r="H53" s="16">
         <v>0.22610350000000001</v>
       </c>
-      <c r="I53" s="17"/>
+      <c r="I53" s="17">
+        <v>3.1248044185747098E-4</v>
+      </c>
       <c r="J53" s="16">
         <v>0.22733999999999999</v>
       </c>
-      <c r="K53" s="17"/>
+      <c r="K53" s="17">
+        <v>0.22733999999999999</v>
+      </c>
       <c r="L53" s="3" t="s">
         <v>8</v>
       </c>
@@ -3648,23 +3597,33 @@
       <c r="B54" s="16">
         <v>0.18425549999999999</v>
       </c>
-      <c r="C54" s="17"/>
+      <c r="C54" s="17">
+        <v>5.8444275188620598E-4</v>
+      </c>
       <c r="D54" s="16">
         <v>0.20700249999999901</v>
       </c>
-      <c r="E54" s="17"/>
+      <c r="E54" s="17">
+        <v>5.8569944863103398E-4</v>
+      </c>
       <c r="F54" s="16">
         <v>0.2195675</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="17">
+        <v>0.2195675</v>
+      </c>
       <c r="H54" s="16">
         <v>0.221915999999999</v>
       </c>
-      <c r="I54" s="17"/>
+      <c r="I54" s="17">
+        <v>2.0096478921379299E-4</v>
+      </c>
       <c r="J54" s="16">
         <v>0.22763249999999899</v>
       </c>
-      <c r="K54" s="17"/>
+      <c r="K54" s="17">
+        <v>0.22763249999999899</v>
+      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3688,23 +3647,33 @@
       <c r="B55" s="16">
         <v>0.20187849999999999</v>
       </c>
-      <c r="C55" s="17"/>
+      <c r="C55" s="17">
+        <v>6.0280667251609099E-4</v>
+      </c>
       <c r="D55" s="16">
         <v>0.21612100000000001</v>
       </c>
-      <c r="E55" s="17"/>
+      <c r="E55" s="17">
+        <v>4.5788506259884998E-4</v>
+      </c>
       <c r="F55" s="16">
         <v>0.21720300000000001</v>
       </c>
-      <c r="G55" s="17"/>
+      <c r="G55" s="17">
+        <v>0.21720300000000001</v>
+      </c>
       <c r="H55" s="16">
         <v>0.221054</v>
       </c>
-      <c r="I55" s="17"/>
+      <c r="I55" s="17">
+        <v>1.5134648035517199E-4</v>
+      </c>
       <c r="J55" s="16">
         <v>0.224504499999999</v>
       </c>
-      <c r="K55" s="17"/>
+      <c r="K55" s="17">
+        <v>0.224504499999999</v>
+      </c>
       <c r="L55" s="3" t="s">
         <v>8</v>
       </c>
@@ -3728,23 +3697,33 @@
       <c r="B56" s="20">
         <v>0.1864625</v>
       </c>
-      <c r="C56" s="21"/>
+      <c r="C56" s="21">
+        <v>6.8115581545402301E-4</v>
+      </c>
       <c r="D56" s="20">
         <v>0.2153185</v>
       </c>
-      <c r="E56" s="21"/>
+      <c r="E56" s="21">
+        <v>5.2734435611609203E-4</v>
+      </c>
       <c r="F56" s="20">
         <v>0.21998899999999999</v>
       </c>
-      <c r="G56" s="21"/>
+      <c r="G56" s="21">
+        <v>0.21998899999999999</v>
+      </c>
       <c r="H56" s="20">
         <v>0.226079</v>
       </c>
-      <c r="I56" s="21"/>
+      <c r="I56" s="21">
+        <v>1.3355755898965499E-4</v>
+      </c>
       <c r="J56" s="20">
         <v>0.22846350000000001</v>
       </c>
-      <c r="K56" s="21"/>
+      <c r="K56" s="21">
+        <v>0.22846350000000001</v>
+      </c>
       <c r="L56" s="3" t="s">
         <v>8</v>
       </c>
@@ -3768,23 +3747,33 @@
       <c r="B57" s="20">
         <v>0.19761200000000001</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="21">
+        <v>5.5162524880919496E-4</v>
+      </c>
       <c r="D57" s="20">
         <v>0.21463499999999899</v>
       </c>
-      <c r="E57" s="21"/>
+      <c r="E57" s="21">
+        <v>3.8716450582643598E-4</v>
+      </c>
       <c r="F57" s="20">
         <v>0.21693399999999999</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>0.21693399999999999</v>
+      </c>
       <c r="H57" s="20">
         <v>0.21992049999999999</v>
       </c>
-      <c r="I57" s="21"/>
+      <c r="I57" s="21">
+        <v>1.7156015940229799E-4</v>
+      </c>
       <c r="J57" s="20">
         <v>0.225074999999999</v>
       </c>
-      <c r="K57" s="21"/>
+      <c r="K57" s="21">
+        <v>0.225074999999999</v>
+      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3808,23 +3797,33 @@
       <c r="B58" s="20">
         <v>0.17567050000000001</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="21">
+        <v>5.5200134567816002E-4</v>
+      </c>
       <c r="D58" s="20">
         <v>0.18843799999999999</v>
       </c>
-      <c r="E58" s="21"/>
+      <c r="E58" s="21">
+        <v>5.8113985639195295E-4</v>
+      </c>
       <c r="F58" s="20">
         <v>0.20649899999999999</v>
       </c>
-      <c r="G58" s="21"/>
+      <c r="G58" s="21">
+        <v>0.20649899999999999</v>
+      </c>
       <c r="H58" s="20">
         <v>0.22538849999999999</v>
       </c>
-      <c r="I58" s="21"/>
+      <c r="I58" s="21">
+        <v>2.2228967283793101E-4</v>
+      </c>
       <c r="J58" s="20">
         <v>0.2298345</v>
       </c>
-      <c r="K58" s="21"/>
+      <c r="K58" s="21">
+        <v>0.2298345</v>
+      </c>
       <c r="L58" s="3" t="s">
         <v>7</v>
       </c>
@@ -3848,23 +3847,33 @@
       <c r="B59" s="24">
         <v>0.20179149999999901</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="25">
+        <v>7.1938966064367797E-4</v>
+      </c>
       <c r="D59" s="24">
         <v>0.21457199999999901</v>
       </c>
-      <c r="E59" s="25"/>
+      <c r="E59" s="25">
+        <v>5.4487461625746996E-4</v>
+      </c>
       <c r="F59" s="24">
         <v>0.21744150000000001</v>
       </c>
-      <c r="G59" s="25"/>
+      <c r="G59" s="25">
+        <v>0.21744150000000001</v>
+      </c>
       <c r="H59" s="24">
         <v>0.22283499999999901</v>
       </c>
-      <c r="I59" s="25"/>
+      <c r="I59" s="25">
+        <v>1.9879946349885E-4</v>
+      </c>
       <c r="J59" s="24">
         <v>0.2290075</v>
       </c>
-      <c r="K59" s="25"/>
+      <c r="K59" s="25">
+        <v>0.2290075</v>
+      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3882,51 +3891,746 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="87">
-        <f>MAX(B44:B59)</f>
-        <v>0.203361499999999</v>
-      </c>
-      <c r="C60" s="87">
-        <f t="shared" ref="C60:J60" si="0">MAX(C44:C59)</f>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="87">
-        <f t="shared" si="0"/>
-        <v>0.21787199999999901</v>
-      </c>
-      <c r="E60" s="87">
-        <f t="shared" si="0"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="70"/>
+      <c r="F63" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="71"/>
+      <c r="H63" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" s="75"/>
+      <c r="J63" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="80"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F60" s="87">
-        <f t="shared" si="0"/>
-        <v>0.22188350000000001</v>
-      </c>
-      <c r="G60" s="87">
-        <f t="shared" si="0"/>
+      <c r="K64" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0.21274999999999999</v>
+      </c>
+      <c r="C65" s="7">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E65" s="8">
+        <v>5.8E-4</v>
+      </c>
+      <c r="F65" s="52">
+        <v>0.91777579281587096</v>
+      </c>
+      <c r="G65" s="7">
+        <v>7.11E-3</v>
+      </c>
+      <c r="H65" s="39">
+        <v>44.5</v>
+      </c>
+      <c r="I65" s="40">
+        <v>386.83332999999999</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0.21384999999999901</v>
+      </c>
+      <c r="C66" s="7">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.57050000000000001</v>
+      </c>
+      <c r="E66" s="8">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="F66" s="52">
+        <v>0.90759701446846397</v>
+      </c>
+      <c r="G66" s="7">
+        <v>9.5700000000000004E-3</v>
+      </c>
+      <c r="H66" s="39">
+        <v>47</v>
+      </c>
+      <c r="I66" s="40">
+        <v>562.53332999999998</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0.21965000000000001</v>
+      </c>
+      <c r="C67" s="7">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.55799999999999905</v>
+      </c>
+      <c r="E67" s="8">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="F67" s="52">
+        <v>0.91482274944556696</v>
+      </c>
+      <c r="G67" s="7">
+        <v>6.8500000000000002E-3</v>
+      </c>
+      <c r="H67" s="39">
+        <v>36</v>
+      </c>
+      <c r="I67" s="40">
+        <v>460.47816</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M67" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0.21665000000000001</v>
+      </c>
+      <c r="C68" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.5655</v>
+      </c>
+      <c r="E68" s="8">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="F68" s="52">
+        <v>0.91262296724643099</v>
+      </c>
+      <c r="G68" s="7">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="H68" s="39">
+        <v>43</v>
+      </c>
+      <c r="I68" s="40">
+        <v>1041.3574699999999</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="12">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="E69" s="14">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="F69" s="55">
+        <v>0.91526794130700495</v>
+      </c>
+      <c r="G69" s="13">
+        <v>3.2699999999999999E-3</v>
+      </c>
+      <c r="H69" s="41">
+        <v>80.5</v>
+      </c>
+      <c r="I69" s="42">
+        <v>1578.1379300000001</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="12">
+        <v>0.22675000000000001</v>
+      </c>
+      <c r="C70" s="13">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="E70" s="14">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="F70" s="55">
+        <v>0.91065644986831196</v>
+      </c>
+      <c r="G70" s="13">
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="H70" s="41">
+        <v>66</v>
+      </c>
+      <c r="I70" s="42">
+        <v>1728.11034</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="12">
+        <v>0.21015</v>
+      </c>
+      <c r="C71" s="13">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E71" s="14">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="F71" s="55">
+        <v>0.91482274944556696</v>
+      </c>
+      <c r="G71" s="13">
+        <v>9.3900000000000008E-3</v>
+      </c>
+      <c r="H71" s="41">
+        <v>76.5</v>
+      </c>
+      <c r="I71" s="42">
+        <v>2432.6448300000002</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="12">
+        <v>0.22065000000000001</v>
+      </c>
+      <c r="C72" s="13">
+        <v>2.7E-4</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0.5575</v>
+      </c>
+      <c r="E72" s="14">
+        <v>6.2E-4</v>
+      </c>
+      <c r="F72" s="55">
+        <v>0.91730095392435596</v>
+      </c>
+      <c r="G72" s="13">
+        <v>4.4099999999999999E-3</v>
+      </c>
+      <c r="H72" s="41">
+        <v>77</v>
+      </c>
+      <c r="I72" s="42">
+        <v>1776.68506</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="16">
+        <v>0.22405</v>
+      </c>
+      <c r="C73" s="17">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D73" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E73" s="18">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="F73" s="58">
+        <v>0.91374444865627902</v>
+      </c>
+      <c r="G73" s="17">
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="H73" s="43">
+        <v>147</v>
+      </c>
+      <c r="I73" s="44">
+        <v>8008.1333299999997</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="16">
+        <v>0.22735</v>
+      </c>
+      <c r="C74" s="17">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="D74" s="16">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="E74" s="18">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="F74" s="58">
+        <v>0.91144725171283003</v>
+      </c>
+      <c r="G74" s="17">
+        <v>1.9E-3</v>
+      </c>
+      <c r="H74" s="43">
+        <v>127.5</v>
+      </c>
+      <c r="I74" s="44">
+        <v>3150.3551699999998</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="16">
+        <v>0.22864999999999999</v>
+      </c>
+      <c r="C75" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="D75" s="16">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E75" s="18">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="F75" s="58">
+        <v>0.91607260022761305</v>
+      </c>
+      <c r="G75" s="17">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="H75" s="43">
+        <v>184</v>
+      </c>
+      <c r="I75" s="44">
+        <v>5071.9781599999997</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="16">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="C76" s="17">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="D76" s="16">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E76" s="18">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="F76" s="58">
+        <v>0.914077006873524</v>
+      </c>
+      <c r="G76" s="17">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H76" s="43">
+        <v>111.5</v>
+      </c>
+      <c r="I76" s="44">
+        <v>3438.8333299999999</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="20">
+        <v>0.23874999999999999</v>
+      </c>
+      <c r="C77" s="21">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D77" s="20">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E77" s="22">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F77" s="61">
+        <v>0.90583657537426998</v>
+      </c>
+      <c r="G77" s="21">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H77" s="45">
+        <v>948.5</v>
+      </c>
+      <c r="I77" s="46">
+        <v>95802.133329999997</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="20">
+        <v>0.2389</v>
+      </c>
+      <c r="C78" s="21">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D78" s="20">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E78" s="22">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F78" s="61">
+        <v>0.90583657537426998</v>
+      </c>
+      <c r="G78" s="21">
         <v>0</v>
       </c>
-      <c r="H60" s="87">
-        <f t="shared" si="0"/>
-        <v>0.22620899999999999</v>
-      </c>
-      <c r="I60" s="87">
-        <f t="shared" si="0"/>
+      <c r="H78" s="45">
+        <v>977</v>
+      </c>
+      <c r="I78" s="46">
+        <v>46055.705750000001</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="20">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C79" s="21">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="E79" s="22">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F79" s="61">
+        <v>0.90577737930091695</v>
+      </c>
+      <c r="G79" s="21">
         <v>0</v>
       </c>
-      <c r="J60" s="87">
-        <f t="shared" si="0"/>
-        <v>0.2298345</v>
+      <c r="H79" s="45">
+        <v>913</v>
+      </c>
+      <c r="I79" s="46">
+        <v>70466.133329999997</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="24">
+        <v>0.24104999999999999</v>
+      </c>
+      <c r="C80" s="25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D80" s="24">
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="E80" s="26">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F80" s="64">
+        <v>0.90568554724324402</v>
+      </c>
+      <c r="G80" s="25">
+        <v>0</v>
+      </c>
+      <c r="H80" s="47">
+        <v>953</v>
+      </c>
+      <c r="I80" s="48">
+        <v>72439.909199999995</v>
+      </c>
+      <c r="J80" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="29" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
+  <mergeCells count="25">
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:M23"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -3934,180 +4638,194 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="L2:O2"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:O5 L7:O18 L6:N6">
-    <cfRule type="expression" dxfId="51" priority="48">
+    <cfRule type="expression" dxfId="45" priority="52">
       <formula>L4="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="49">
+    <cfRule type="expression" dxfId="44" priority="53">
       <formula>L4="-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36:N36 L25:N25 L27:N34 L26:M26">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>L25="~"</formula>
+  <conditionalFormatting sqref="J36:L36 J25:L25 J27:L34 J26:K26">
+    <cfRule type="expression" dxfId="43" priority="54">
+      <formula>J25="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51">
-      <formula>L25="-"</formula>
+    <cfRule type="expression" dxfId="42" priority="55">
+      <formula>J25="-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35">
-    <cfRule type="expression" dxfId="47" priority="52">
-      <formula>N35="~"</formula>
+  <conditionalFormatting sqref="L35">
+    <cfRule type="expression" dxfId="41" priority="56">
+      <formula>L35="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="53">
-      <formula>N35="-"</formula>
+    <cfRule type="expression" dxfId="40" priority="57">
+      <formula>L35="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="39" priority="49">
       <formula>O19="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="38" priority="50">
       <formula>O19="-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O26 O28:O36">
-    <cfRule type="expression" dxfId="43" priority="43">
-      <formula>O25="~"</formula>
+  <conditionalFormatting sqref="M25:M26 M28:M36">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>M25="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
-      <formula>O25="-"</formula>
+    <cfRule type="expression" dxfId="36" priority="48">
+      <formula>M25="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:M44 L49 L45:L47 N45:O45 L50:O50 L53:N53 L51:M52 L54:M58 O44">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>L44="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>L44="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:P45 P47:P57">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>P44="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>P44="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>P59="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>P59="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46:P46">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>O46="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>O46="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>L59="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>L59="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:M47">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>M45="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>M45="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>M59="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>M59="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>M49="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>M49="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:N47 O47">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>N46="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>N46="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51:O52">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>N51="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>N51="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54:O55">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>N54="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>N54="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56:O57">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>N56="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>N56="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N58:O59">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>N58="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>N58="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48:O48">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>N48="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>N48="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>N44="~"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>N44="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>O53="~"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>O53="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65:M66 J68:M79 J67:L67">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>J65="~"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>J65="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M80">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>M80="~"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>O53="-"</formula>
+      <formula>M80="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
